--- a/div/eventsheet_obl.xlsx
+++ b/div/eventsheet_obl.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1410" windowWidth="15360" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="1410" windowWidth="15360" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spielbericht" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="200" formatCode="d/\ mmmm\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="d/\ mmmm\ yyyy"/>
   </numFmts>
   <fonts count="34" x14ac:knownFonts="1">
     <font>
@@ -266,7 +266,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="14"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -283,7 +283,19 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -307,18 +319,18 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="8"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -342,18 +354,6 @@
       <b/>
       <i/>
       <sz val="10"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.5"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1128,31 +1128,69 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1161,153 +1199,22 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="200" fontId="23" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="200" fontId="18" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1318,29 +1225,120 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1356,106 +1354,108 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="200" fontId="23" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="200" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="Akzent1" xfId="1" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Akzent1 - 20%" xfId="2"/>
-    <cellStyle name="Akzent1 - 40%" xfId="3"/>
-    <cellStyle name="Akzent1 - 60%" xfId="4"/>
+    <cellStyle name="Akzent1 - 20%" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Akzent1 - 40%" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Akzent1 - 60%" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Akzent2" xfId="5" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Akzent2 - 20%" xfId="6"/>
-    <cellStyle name="Akzent2 - 40%" xfId="7"/>
-    <cellStyle name="Akzent2 - 60%" xfId="8"/>
+    <cellStyle name="Akzent2 - 20%" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Akzent2 - 40%" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Akzent2 - 60%" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Akzent3" xfId="9" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Akzent3 - 20%" xfId="10"/>
-    <cellStyle name="Akzent3 - 40%" xfId="11"/>
-    <cellStyle name="Akzent3 - 60%" xfId="12"/>
+    <cellStyle name="Akzent3 - 20%" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Akzent3 - 40%" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Akzent3 - 60%" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Akzent4" xfId="13" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Akzent4 - 20%" xfId="14"/>
-    <cellStyle name="Akzent4 - 40%" xfId="15"/>
-    <cellStyle name="Akzent4 - 60%" xfId="16"/>
+    <cellStyle name="Akzent4 - 20%" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Akzent4 - 40%" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Akzent4 - 60%" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
     <cellStyle name="Akzent5" xfId="17" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Akzent5 - 20%" xfId="18"/>
-    <cellStyle name="Akzent5 - 40%" xfId="19"/>
-    <cellStyle name="Akzent5 - 60%" xfId="20"/>
+    <cellStyle name="Akzent5 - 20%" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Akzent5 - 40%" xfId="19" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Akzent5 - 60%" xfId="20" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
     <cellStyle name="Akzent6" xfId="21" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Akzent6 - 20%" xfId="22"/>
-    <cellStyle name="Akzent6 - 40%" xfId="23"/>
-    <cellStyle name="Akzent6 - 60%" xfId="24"/>
+    <cellStyle name="Akzent6 - 20%" xfId="22" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Akzent6 - 40%" xfId="23" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Akzent6 - 60%" xfId="24" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
     <cellStyle name="Ausgabe" xfId="25" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Berechnung" xfId="26" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Blattüberschrift" xfId="27"/>
+    <cellStyle name="Blattüberschrift" xfId="27" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Eingabe" xfId="28" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Ergebnis" xfId="29" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Gut" xfId="30" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Hervorhebung 1" xfId="31"/>
-    <cellStyle name="Hervorhebung 2" xfId="32"/>
-    <cellStyle name="Hervorhebung 3" xfId="33"/>
+    <cellStyle name="Hervorhebung 1" xfId="31" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Hervorhebung 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Hervorhebung 3" xfId="33" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
     <cellStyle name="Neutral" xfId="34" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Notiz" xfId="35" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Schlecht" xfId="36" builtinId="27" customBuiltin="1"/>
@@ -1466,7 +1466,7 @@
     <cellStyle name="Überschrift 4" xfId="40" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Verknüpfte Zelle" xfId="41" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Warnender Text" xfId="42" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Zelle prüfen" xfId="43"/>
+    <cellStyle name="Zelle prüfen" xfId="43" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2026,26 +2026,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="150" workbookViewId="0">
+      <selection activeCell="T15" sqref="T15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" style="8" customWidth="1"/>
-    <col min="2" max="18" width="4.7109375" style="8" customWidth="1"/>
+    <col min="2" max="12" width="4.7109375" style="8" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" style="8" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.7109375" style="8" customWidth="1"/>
     <col min="19" max="19" width="1.7109375" style="8" customWidth="1"/>
     <col min="20" max="21" width="4.7109375" style="8" customWidth="1"/>
     <col min="22" max="22" width="1.7109375" style="8" customWidth="1"/>
     <col min="23" max="24" width="4.7109375" style="8" customWidth="1"/>
     <col min="25" max="25" width="1.7109375" style="8" customWidth="1"/>
-    <col min="26" max="27" width="4.7109375" style="8" customWidth="1"/>
+    <col min="26" max="26" width="4.7109375" style="8" customWidth="1"/>
+    <col min="27" max="27" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="1.7109375" style="8" customWidth="1"/>
-    <col min="29" max="30" width="4.7109375" style="8" customWidth="1"/>
+    <col min="29" max="29" width="5.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="4.7109375" style="8" customWidth="1"/>
     <col min="31" max="31" width="1.7109375" style="8" customWidth="1"/>
     <col min="32" max="33" width="4.7109375" style="8" customWidth="1"/>
     <col min="34" max="34" width="1.7109375" style="8" customWidth="1"/>
@@ -2058,7 +2066,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B1" s="2"/>
@@ -2085,16 +2093,16 @@
       <c r="W1" s="5"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="100"/>
-      <c r="AA1" s="100"/>
-      <c r="AB1" s="100"/>
-      <c r="AC1" s="100"/>
-      <c r="AD1" s="100"/>
-      <c r="AE1" s="100"/>
-      <c r="AF1" s="100"/>
-      <c r="AG1" s="100"/>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="100"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
       <c r="AJ1" s="7"/>
       <c r="AK1" s="7"/>
       <c r="AL1" s="7"/>
@@ -2121,37 +2129,37 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="11"/>
       <c r="I2" s="11"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-      <c r="O2" s="103"/>
-      <c r="P2" s="103"/>
-      <c r="Q2" s="103"/>
-      <c r="R2" s="103"/>
-      <c r="S2" s="103"/>
-      <c r="T2" s="103"/>
-      <c r="U2" s="103"/>
-      <c r="V2" s="103"/>
-      <c r="W2" s="103"/>
-      <c r="X2" s="103"/>
-      <c r="Y2" s="99"/>
-      <c r="Z2" s="99"/>
-      <c r="AA2" s="99"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="13"/>
-      <c r="AE2" s="13"/>
-      <c r="AF2" s="13"/>
-      <c r="AG2" s="13"/>
-      <c r="AH2" s="13"/>
-      <c r="AI2" s="13"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="14"/>
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="15"/>
+      <c r="AE2" s="15"/>
+      <c r="AF2" s="15"/>
+      <c r="AG2" s="15"/>
+      <c r="AH2" s="15"/>
+      <c r="AI2" s="15"/>
       <c r="AJ2" s="7"/>
       <c r="AK2" s="7"/>
       <c r="AL2" s="7"/>
@@ -2170,43 +2178,43 @@
       <c r="AY2" s="7"/>
     </row>
     <row r="3" spans="1:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="97" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97"/>
-      <c r="I3" s="98"/>
-      <c r="J3" s="98"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="10" t="s">
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="62" t="s">
+      <c r="P3" s="20"/>
+      <c r="Q3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="22"/>
+      <c r="Y3" s="22"/>
+      <c r="Z3" s="22"/>
+      <c r="AA3" s="22"/>
+      <c r="AB3" s="19"/>
+      <c r="AC3" s="19"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
@@ -2231,41 +2239,41 @@
       <c r="AY3" s="7"/>
     </row>
     <row r="4" spans="1:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="10" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="102"/>
-      <c r="L4" s="102"/>
-      <c r="M4" s="102"/>
-      <c r="N4" s="102"/>
-      <c r="O4" s="59" t="s">
+      <c r="I4" s="20"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="102"/>
-      <c r="U4" s="102"/>
-      <c r="V4" s="102"/>
-      <c r="W4" s="102"/>
-      <c r="X4" s="102"/>
-      <c r="Y4" s="102"/>
-      <c r="Z4" s="102"/>
-      <c r="AA4" s="102"/>
-      <c r="AB4" s="14"/>
-      <c r="AC4" s="14"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="24"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
@@ -2343,49 +2351,49 @@
       <c r="AY5" s="7"/>
     </row>
     <row r="6" spans="1:51" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="16" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="19"/>
-      <c r="Y6" s="19"/>
-      <c r="Z6" s="20"/>
-      <c r="AA6" s="17" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="31"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="17" t="s">
+      <c r="AB6" s="28"/>
+      <c r="AC6" s="32"/>
+      <c r="AD6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="AE6" s="17"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="17" t="s">
+      <c r="AE6" s="28"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="17"/>
-      <c r="AI6" s="22"/>
+      <c r="AH6" s="28"/>
+      <c r="AI6" s="33"/>
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
       <c r="AL6" s="7"/>
@@ -2404,64 +2412,64 @@
       <c r="AY6" s="7"/>
     </row>
     <row r="7" spans="1:51" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="76" t="s">
+      <c r="A7" s="34"/>
+      <c r="B7" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="77"/>
-      <c r="D7" s="71" t="str">
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="str">
         <f>D3</f>
         <v>Mannschaft A</v>
       </c>
-      <c r="E7" s="72"/>
-      <c r="F7" s="72"/>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="76" t="str">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="35" t="str">
         <f>B7</f>
         <v>ÖBV-Nr.</v>
       </c>
-      <c r="K7" s="77"/>
-      <c r="L7" s="71" t="str">
+      <c r="K7" s="36"/>
+      <c r="L7" s="37" t="str">
         <f>Q3</f>
         <v>Mannschaft B</v>
       </c>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="74"/>
-      <c r="P7" s="74"/>
-      <c r="Q7" s="75"/>
-      <c r="R7" s="24" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="40"/>
+      <c r="O7" s="40"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="S7" s="24"/>
-      <c r="T7" s="25"/>
-      <c r="U7" s="24" t="s">
+      <c r="S7" s="42"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="V7" s="24"/>
-      <c r="W7" s="25"/>
-      <c r="X7" s="26" t="s">
+      <c r="V7" s="42"/>
+      <c r="W7" s="43"/>
+      <c r="X7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="25"/>
-      <c r="AA7" s="24" t="s">
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="43"/>
+      <c r="AA7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AB7" s="24"/>
-      <c r="AC7" s="25"/>
-      <c r="AD7" s="24" t="s">
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="43"/>
+      <c r="AD7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AE7" s="24"/>
-      <c r="AF7" s="25"/>
-      <c r="AG7" s="24" t="s">
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="43"/>
+      <c r="AG7" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="AH7" s="24"/>
-      <c r="AI7" s="27"/>
+      <c r="AH7" s="42"/>
+      <c r="AI7" s="45"/>
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
       <c r="AL7" s="7"/>
@@ -2480,79 +2488,70 @@
       <c r="AY7" s="7"/>
     </row>
     <row r="8" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="65"/>
-      <c r="H8" s="65"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="91"/>
-      <c r="K8" s="92"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="65"/>
-      <c r="N8" s="65"/>
-      <c r="O8" s="65"/>
-      <c r="P8" s="65"/>
-      <c r="Q8" s="93"/>
-      <c r="R8" s="29">
-        <v>0</v>
-      </c>
-      <c r="S8" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="31">
-        <v>0</v>
-      </c>
-      <c r="U8" s="29">
-        <v>0</v>
-      </c>
-      <c r="V8" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="W8" s="31">
-        <v>0</v>
-      </c>
-      <c r="X8" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z8" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC8" s="34">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="32">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF8" s="34">
-        <f t="shared" ref="AF8:AF15" si="0">SUM(AO8:AQ8)</f>
-        <v>0</v>
-      </c>
-      <c r="AG8" s="32">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="50"/>
+      <c r="N8" s="50"/>
+      <c r="O8" s="50"/>
+      <c r="P8" s="50"/>
+      <c r="Q8" s="53"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="T8" s="56"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="W8" s="56"/>
+      <c r="X8" s="54"/>
+      <c r="Y8" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="57">
+        <f t="shared" ref="AA8:AA14" si="0">R8+U8+X8</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC8" s="59">
+        <f t="shared" ref="AC8:AC15" si="1">T8+W8+Z8</f>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="57">
+        <f t="shared" ref="AD8:AD14" si="2">SUM(AK8:AM8)</f>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF8" s="59">
+        <f t="shared" ref="AF8:AF15" si="3">SUM(AO8:AQ8)</f>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="57">
         <f>IF(AD8&gt;AF8,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AH8" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI8" s="35">
+      <c r="AH8" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI8" s="60">
         <f>IF(OR(AD8&gt;AF8,AD8=AF8),0,1)</f>
         <v>0</v>
       </c>
@@ -2592,107 +2591,97 @@
       <c r="AY8" s="7"/>
     </row>
     <row r="9" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="79"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="68"/>
-      <c r="N9" s="68"/>
-      <c r="O9" s="68"/>
-      <c r="P9" s="68"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="29">
-        <v>0</v>
-      </c>
-      <c r="S9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="31">
-        <v>0</v>
-      </c>
-      <c r="U9" s="29">
-        <v>0</v>
-      </c>
-      <c r="V9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="W9" s="31">
-        <v>0</v>
-      </c>
-      <c r="X9" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z9" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC9" s="34">
-        <f t="shared" ref="AC9:AC15" si="1">T9+W9+Z9</f>
-        <v>0</v>
-      </c>
-      <c r="AD9" s="32">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF9" s="34">
+      <c r="B9" s="61"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="62"/>
+      <c r="L9" s="63"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="67"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="T9" s="56"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="W9" s="56"/>
+      <c r="X9" s="54"/>
+      <c r="Y9" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG9" s="32">
-        <f t="shared" ref="AG9:AG15" si="2">IF(AD9&gt;AF9,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="AH9" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI9" s="35">
-        <f t="shared" ref="AI9:AI15" si="3">IF(OR(AD9&gt;AF9,AD9=AF9),0,1)</f>
+      <c r="AB9" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC9" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF9" s="59">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="57">
+        <f t="shared" ref="AG9:AG15" si="4">IF(AD9&gt;AF9,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI9" s="60">
+        <f t="shared" ref="AI9:AI15" si="5">IF(OR(AD9&gt;AF9,AD9=AF9),0,1)</f>
         <v>0</v>
       </c>
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7">
-        <f t="shared" ref="AK9:AK15" si="4">IF(R9&gt;T9,1,0)</f>
+        <f t="shared" ref="AK9:AK15" si="6">IF(R9&gt;T9,1,0)</f>
         <v>0</v>
       </c>
       <c r="AL9" s="7">
-        <f t="shared" ref="AL9:AL15" si="5">IF(U9&gt;W9,1,0)</f>
+        <f t="shared" ref="AL9:AL15" si="7">IF(U9&gt;W9,1,0)</f>
         <v>0</v>
       </c>
       <c r="AM9" s="7">
-        <f t="shared" ref="AM9:AM15" si="6">IF(X9&gt;Z9,1,0)</f>
+        <f t="shared" ref="AM9:AM15" si="8">IF(X9&gt;Z9,1,0)</f>
         <v>0</v>
       </c>
       <c r="AN9" s="7"/>
       <c r="AO9" s="7">
-        <f t="shared" ref="AO9:AO15" si="7">IF(T9&gt;R9,1,0)</f>
+        <f t="shared" ref="AO9:AO15" si="9">IF(T9&gt;R9,1,0)</f>
         <v>0</v>
       </c>
       <c r="AP9" s="7">
-        <f t="shared" ref="AP9:AP15" si="8">IF(W9&gt;U9,1,0)</f>
+        <f t="shared" ref="AP9:AP15" si="10">IF(W9&gt;U9,1,0)</f>
         <v>0</v>
       </c>
       <c r="AQ9" s="7">
-        <f t="shared" ref="AQ9:AQ15" si="9">IF(Z9&gt;X9,1,0)</f>
+        <f t="shared" ref="AQ9:AQ15" si="11">IF(Z9&gt;X9,1,0)</f>
         <v>0</v>
       </c>
       <c r="AR9" s="7"/>
@@ -2705,106 +2694,97 @@
       <c r="AY9" s="7"/>
     </row>
     <row r="10" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
-      <c r="H10" s="68"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="89"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="29">
-        <v>0</v>
-      </c>
-      <c r="S10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" s="31">
-        <v>0</v>
-      </c>
-      <c r="U10" s="29">
-        <v>0</v>
-      </c>
-      <c r="V10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="W10" s="31">
-        <v>0</v>
-      </c>
-      <c r="X10" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z10" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="32">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC10" s="34">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="32">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF10" s="34">
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="63"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="64"/>
+      <c r="O10" s="64"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="T10" s="56"/>
+      <c r="U10" s="54"/>
+      <c r="V10" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="W10" s="56"/>
+      <c r="X10" s="54"/>
+      <c r="Y10" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG10" s="32">
+      <c r="AB10" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC10" s="59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH10" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI10" s="35">
+      <c r="AE10" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF10" s="59">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG10" s="57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI10" s="60">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL10" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM10" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN10" s="7"/>
       <c r="AO10" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP10" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ10" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR10" s="7"/>
@@ -2817,109 +2797,97 @@
       <c r="AY10" s="7"/>
     </row>
     <row r="11" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="78"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="69"/>
-      <c r="J11" s="89"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="68"/>
-      <c r="N11" s="68"/>
-      <c r="O11" s="68"/>
-      <c r="P11" s="68"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="29">
-        <v>0</v>
-      </c>
-      <c r="S11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="T11" s="31">
-        <v>0</v>
-      </c>
-      <c r="U11" s="29">
-        <v>0</v>
-      </c>
-      <c r="V11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="W11" s="31">
-        <v>0</v>
-      </c>
-      <c r="X11" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z11" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="32">
-        <f>R11+U11+X11</f>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC11" s="34">
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="64"/>
+      <c r="O11" s="64"/>
+      <c r="P11" s="64"/>
+      <c r="Q11" s="67"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="T11" s="56"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="W11" s="56"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC11" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="32">
-        <f>SUM(AK11:AM11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF11" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG11" s="32">
+      <c r="AD11" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH11" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI11" s="35">
+      <c r="AE11" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF11" s="59">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI11" s="60">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL11" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM11" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN11" s="7"/>
       <c r="AO11" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP11" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ11" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR11" s="7"/>
@@ -2932,109 +2900,97 @@
       <c r="AY11" s="7"/>
     </row>
     <row r="12" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="67"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="69"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="95"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="95"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="29">
-        <v>0</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="T12" s="31">
-        <v>0</v>
-      </c>
-      <c r="U12" s="29">
-        <v>0</v>
-      </c>
-      <c r="V12" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="W12" s="31">
-        <v>0</v>
-      </c>
-      <c r="X12" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z12" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="32">
-        <f>R12+U12+X12</f>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC12" s="34">
+      <c r="B12" s="61"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="66"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="68"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="69"/>
+      <c r="O12" s="69"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="70"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="T12" s="56"/>
+      <c r="U12" s="54"/>
+      <c r="V12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="W12" s="56"/>
+      <c r="X12" s="54"/>
+      <c r="Y12" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC12" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="32">
-        <f>SUM(AK12:AM12)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF12" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG12" s="32">
+      <c r="AD12" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH12" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI12" s="35">
+      <c r="AE12" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF12" s="59">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI12" s="60">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL12" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM12" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN12" s="7"/>
       <c r="AO12" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP12" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ12" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR12" s="7"/>
@@ -3047,109 +3003,97 @@
       <c r="AY12" s="7"/>
     </row>
     <row r="13" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="89"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="68"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="29">
-        <v>0</v>
-      </c>
-      <c r="S13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="T13" s="31">
-        <v>0</v>
-      </c>
-      <c r="U13" s="29">
-        <v>0</v>
-      </c>
-      <c r="V13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="W13" s="31">
-        <v>0</v>
-      </c>
-      <c r="X13" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z13" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="32">
-        <f>R13+U13+X13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC13" s="34">
+      <c r="B13" s="61"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="66"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="67"/>
+      <c r="R13" s="54"/>
+      <c r="S13" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="T13" s="56"/>
+      <c r="U13" s="54"/>
+      <c r="V13" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="W13" s="56"/>
+      <c r="X13" s="54"/>
+      <c r="Y13" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC13" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="32">
-        <f>SUM(AK13:AM13)</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF13" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG13" s="32">
+      <c r="AD13" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH13" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI13" s="35">
+      <c r="AE13" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF13" s="59">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI13" s="60">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ13" s="7"/>
       <c r="AK13" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL13" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM13" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN13" s="7"/>
       <c r="AO13" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP13" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ13" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR13" s="7"/>
@@ -3162,109 +3106,97 @@
       <c r="AY13" s="7"/>
     </row>
     <row r="14" spans="1:51" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="29">
-        <v>0</v>
-      </c>
-      <c r="S14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="T14" s="31">
-        <v>0</v>
-      </c>
-      <c r="U14" s="29">
-        <v>0</v>
-      </c>
-      <c r="V14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="W14" s="31">
-        <v>0</v>
-      </c>
-      <c r="X14" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z14" s="31">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="32">
-        <f>R14+U14+X14</f>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC14" s="34">
+      <c r="B14" s="61"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="65"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="67"/>
+      <c r="R14" s="54"/>
+      <c r="S14" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="T14" s="56"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="W14" s="56"/>
+      <c r="X14" s="54"/>
+      <c r="Y14" s="55" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC14" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD14" s="32">
-        <f>SUM(AK14:AM14)</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF14" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="32">
+      <c r="AD14" s="57">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="AH14" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI14" s="35">
+      <c r="AE14" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF14" s="59">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG14" s="57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI14" s="60">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ14" s="7"/>
       <c r="AK14" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL14" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM14" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN14" s="7"/>
       <c r="AO14" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP14" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ14" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR14" s="7"/>
@@ -3277,109 +3209,97 @@
       <c r="AY14" s="7"/>
     </row>
     <row r="15" spans="1:51" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="82"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="85"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="90"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85"/>
-      <c r="O15" s="85"/>
-      <c r="P15" s="85"/>
-      <c r="Q15" s="88"/>
-      <c r="R15" s="37">
-        <v>0</v>
-      </c>
-      <c r="S15" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="T15" s="39">
-        <v>0</v>
-      </c>
-      <c r="U15" s="37">
-        <v>0</v>
-      </c>
-      <c r="V15" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="W15" s="39">
-        <v>0</v>
-      </c>
-      <c r="X15" s="37">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="38" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z15" s="39">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="32">
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="75"/>
+      <c r="N15" s="75"/>
+      <c r="O15" s="75"/>
+      <c r="P15" s="75"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="W15" s="81"/>
+      <c r="X15" s="79"/>
+      <c r="Y15" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z15" s="81"/>
+      <c r="AA15" s="57">
         <f>R15+U15+X15</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC15" s="34">
+      <c r="AB15" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC15" s="59">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="32">
+      <c r="AD15" s="57">
         <f>SUM(AK15:AM15)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF15" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG15" s="32">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AH15" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI15" s="35">
+      <c r="AE15" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF15" s="59">
         <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AG15" s="57">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AH15" s="58" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI15" s="60">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ15" s="7"/>
       <c r="AK15" s="7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AL15" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AM15" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AN15" s="7"/>
       <c r="AO15" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AP15" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AQ15" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AR15" s="7"/>
@@ -3392,69 +3312,69 @@
       <c r="AY15" s="7"/>
     </row>
     <row r="16" spans="1:51" ht="35.1" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="82" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="42" t="b">
+      <c r="B16" s="83"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="85" t="b">
         <f>(IF(AG16&gt;AI16,D3,IF(AI16&gt;AG16,Q3,IF(AD16&gt;AF16,D3,IF(AF16&gt;AD16,Q3,IF(AA16&gt;AC16,D3,IF(AC16&gt;AA16,Q3)))))))</f>
         <v>0</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="83"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="83"/>
+      <c r="Q16" s="83"/>
       <c r="R16" s="5"/>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="43" t="s">
+      <c r="X16" s="86" t="s">
         <v>27</v>
       </c>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="43"/>
-      <c r="AA16" s="44">
+      <c r="Y16" s="86"/>
+      <c r="Z16" s="86"/>
+      <c r="AA16" s="87">
         <f>SUM(AA8:AA15)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC16" s="46">
+      <c r="AB16" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC16" s="89">
         <f>SUM(AC8:AC15)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="47">
+      <c r="AD16" s="90">
         <f>SUM(AD8:AD15)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AF16" s="46">
+      <c r="AE16" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF16" s="89">
         <f>SUM(AF8:AF15)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="47">
+      <c r="AG16" s="90">
         <f>SUM(AG8:AG15)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="45" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI16" s="48">
+      <c r="AH16" s="88" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI16" s="91">
         <f>SUM(AI8:AI15)</f>
         <v>0</v>
       </c>
@@ -3476,75 +3396,75 @@
       <c r="AY16" s="7"/>
     </row>
     <row r="17" spans="1:51" ht="24.95" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="49">
+      <c r="B17" s="92">
         <f>IF($D$16=$D$3,AG16,AI16)</f>
         <v>0</v>
       </c>
-      <c r="C17" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="49">
+      <c r="C17" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="92">
         <f>IF($D$16=$Q$3,AG16,AI16)</f>
         <v>0</v>
       </c>
-      <c r="E17" s="50" t="s">
+      <c r="E17" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="49">
+      <c r="F17" s="93"/>
+      <c r="G17" s="92">
         <f>IF($D$16=$D$3,AD16,AF16)</f>
         <v>0</v>
       </c>
-      <c r="H17" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="49">
+      <c r="H17" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="92">
         <f>IF($D$16=$Q$3,AD16,AF16)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="50" t="s">
+      <c r="J17" s="93" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="49">
+      <c r="K17" s="93"/>
+      <c r="L17" s="93"/>
+      <c r="M17" s="92">
         <f>IF($D$16=$D$3,AA16,AC16)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="O17" s="49">
+      <c r="N17" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="O17" s="92">
         <f>IF($D$16=$Q$3,AA16,AC16)</f>
         <v>0</v>
       </c>
-      <c r="P17" s="50" t="s">
+      <c r="P17" s="93" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="50"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="52" t="s">
+      <c r="Q17" s="93"/>
+      <c r="R17" s="94"/>
+      <c r="S17" s="94"/>
+      <c r="T17" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="53"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="53"/>
-      <c r="X17" s="53"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
+      <c r="U17" s="96"/>
+      <c r="V17" s="96"/>
+      <c r="W17" s="96"/>
+      <c r="X17" s="96"/>
+      <c r="Y17" s="96"/>
+      <c r="Z17" s="96"/>
+      <c r="AA17" s="96"/>
+      <c r="AB17" s="96"/>
+      <c r="AC17" s="96"/>
+      <c r="AD17" s="96"/>
+      <c r="AE17" s="96"/>
+      <c r="AF17" s="96"/>
+      <c r="AG17" s="96"/>
+      <c r="AH17" s="96"/>
+      <c r="AI17" s="96"/>
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
@@ -3563,45 +3483,45 @@
       <c r="AY17" s="7"/>
     </row>
     <row r="18" spans="1:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="81"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="81"/>
-      <c r="J18" s="81"/>
-      <c r="K18" s="81"/>
-      <c r="L18" s="81"/>
-      <c r="M18" s="81"/>
-      <c r="N18" s="81"/>
-      <c r="O18" s="81"/>
-      <c r="P18" s="81"/>
-      <c r="Q18" s="81"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="98"/>
+      <c r="I18" s="98"/>
+      <c r="J18" s="98"/>
+      <c r="K18" s="98"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
       <c r="R18" s="5"/>
       <c r="S18" s="5"/>
-      <c r="T18" s="54" t="s">
+      <c r="T18" s="99" t="s">
         <v>38</v>
       </c>
-      <c r="U18" s="55"/>
-      <c r="V18" s="55"/>
-      <c r="W18" s="55"/>
-      <c r="X18" s="55"/>
-      <c r="Y18" s="55"/>
-      <c r="Z18" s="55"/>
-      <c r="AA18" s="55"/>
-      <c r="AB18" s="55"/>
-      <c r="AC18" s="55"/>
-      <c r="AD18" s="55"/>
-      <c r="AE18" s="55"/>
-      <c r="AF18" s="55"/>
-      <c r="AG18" s="55"/>
-      <c r="AH18" s="55"/>
-      <c r="AI18" s="55"/>
+      <c r="U18" s="100"/>
+      <c r="V18" s="100"/>
+      <c r="W18" s="100"/>
+      <c r="X18" s="100"/>
+      <c r="Y18" s="100"/>
+      <c r="Z18" s="100"/>
+      <c r="AA18" s="100"/>
+      <c r="AB18" s="100"/>
+      <c r="AC18" s="100"/>
+      <c r="AD18" s="100"/>
+      <c r="AE18" s="100"/>
+      <c r="AF18" s="100"/>
+      <c r="AG18" s="100"/>
+      <c r="AH18" s="100"/>
+      <c r="AI18" s="100"/>
       <c r="AJ18" s="7"/>
       <c r="AK18" s="7"/>
       <c r="AL18" s="7"/>
@@ -3620,23 +3540,23 @@
       <c r="AY18" s="7"/>
     </row>
     <row r="19" spans="1:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="80"/>
-      <c r="B19" s="81"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="81"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="81"/>
-      <c r="J19" s="81"/>
-      <c r="K19" s="81"/>
-      <c r="L19" s="81"/>
-      <c r="M19" s="81"/>
-      <c r="N19" s="81"/>
-      <c r="O19" s="81"/>
-      <c r="P19" s="81"/>
-      <c r="Q19" s="81"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="98"/>
+      <c r="I19" s="98"/>
+      <c r="J19" s="98"/>
+      <c r="K19" s="98"/>
+      <c r="L19" s="98"/>
+      <c r="M19" s="98"/>
+      <c r="N19" s="98"/>
+      <c r="O19" s="98"/>
+      <c r="P19" s="98"/>
+      <c r="Q19" s="98"/>
       <c r="R19" s="5"/>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
@@ -3673,41 +3593,41 @@
       <c r="AY19" s="7"/>
     </row>
     <row r="20" spans="1:51" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="80"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="81"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="81"/>
-      <c r="J20" s="81"/>
-      <c r="K20" s="81"/>
-      <c r="L20" s="81"/>
-      <c r="M20" s="81"/>
-      <c r="N20" s="81"/>
-      <c r="O20" s="81"/>
-      <c r="P20" s="81"/>
-      <c r="Q20" s="81"/>
-      <c r="R20" s="56"/>
-      <c r="S20" s="56"/>
-      <c r="T20" s="56"/>
-      <c r="U20" s="56"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="56"/>
-      <c r="AC20" s="56"/>
-      <c r="AD20" s="56"/>
-      <c r="AE20" s="56"/>
-      <c r="AF20" s="56"/>
-      <c r="AG20" s="56"/>
-      <c r="AH20" s="56"/>
-      <c r="AI20" s="56"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="98"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="101"/>
+      <c r="S20" s="101"/>
+      <c r="T20" s="101"/>
+      <c r="U20" s="101"/>
+      <c r="V20" s="101"/>
+      <c r="W20" s="101"/>
+      <c r="X20" s="101"/>
+      <c r="Y20" s="101"/>
+      <c r="Z20" s="101"/>
+      <c r="AA20" s="101"/>
+      <c r="AB20" s="101"/>
+      <c r="AC20" s="101"/>
+      <c r="AD20" s="101"/>
+      <c r="AE20" s="101"/>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="101"/>
       <c r="AJ20" s="7"/>
       <c r="AK20" s="7"/>
       <c r="AL20" s="7"/>
@@ -3726,47 +3646,47 @@
       <c r="AY20" s="7"/>
     </row>
     <row r="21" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A21" s="53"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="53"/>
-      <c r="L21" s="53"/>
-      <c r="M21" s="53"/>
-      <c r="N21" s="53"/>
-      <c r="O21" s="53"/>
-      <c r="P21" s="53"/>
-      <c r="Q21" s="53"/>
-      <c r="R21" s="57" t="s">
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+      <c r="G21" s="96"/>
+      <c r="H21" s="96"/>
+      <c r="I21" s="96"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="96"/>
+      <c r="L21" s="96"/>
+      <c r="M21" s="96"/>
+      <c r="N21" s="96"/>
+      <c r="O21" s="96"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="96"/>
+      <c r="R21" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57" t="s">
+      <c r="S21" s="102"/>
+      <c r="T21" s="102"/>
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="102"/>
+      <c r="X21" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57" t="s">
+      <c r="Y21" s="102"/>
+      <c r="Z21" s="102"/>
+      <c r="AA21" s="102"/>
+      <c r="AB21" s="102"/>
+      <c r="AC21" s="102"/>
+      <c r="AD21" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
+      <c r="AE21" s="102"/>
+      <c r="AF21" s="102"/>
+      <c r="AG21" s="102"/>
+      <c r="AH21" s="102"/>
+      <c r="AI21" s="102"/>
       <c r="AJ21" s="7"/>
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
@@ -3785,47 +3705,47 @@
       <c r="AY21" s="7"/>
     </row>
     <row r="22" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="53"/>
-      <c r="L22" s="53"/>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="53"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="57" t="s">
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+      <c r="G22" s="96"/>
+      <c r="H22" s="96"/>
+      <c r="I22" s="96"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="96"/>
+      <c r="M22" s="96"/>
+      <c r="N22" s="96"/>
+      <c r="O22" s="96"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="96"/>
+      <c r="R22" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
-      <c r="X22" s="57" t="s">
+      <c r="S22" s="102"/>
+      <c r="T22" s="102"/>
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="102"/>
+      <c r="X22" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57" t="s">
+      <c r="Y22" s="102"/>
+      <c r="Z22" s="102"/>
+      <c r="AA22" s="102"/>
+      <c r="AB22" s="102"/>
+      <c r="AC22" s="102"/>
+      <c r="AD22" s="102" t="s">
         <v>36</v>
       </c>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
+      <c r="AE22" s="102"/>
+      <c r="AF22" s="102"/>
+      <c r="AG22" s="102"/>
+      <c r="AH22" s="102"/>
+      <c r="AI22" s="102"/>
       <c r="AJ22" s="7"/>
       <c r="AK22" s="7"/>
       <c r="AL22" s="7"/>
@@ -4215,11 +4135,42 @@
       <c r="AY29" s="7"/>
     </row>
     <row r="31" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="AG31" s="58"/>
+      <c r="AG31" s="103"/>
     </row>
     <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="L7:Q7"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="L8:Q8"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D18:Q18"/>
+    <mergeCell ref="L14:Q14"/>
+    <mergeCell ref="L15:Q15"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L12:Q12"/>
+    <mergeCell ref="L13:Q13"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L9:Q9"/>
+    <mergeCell ref="L10:Q10"/>
+    <mergeCell ref="L11:Q11"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D3:M3"/>
@@ -4230,43 +4181,12 @@
     <mergeCell ref="Z1:AD1"/>
     <mergeCell ref="J2:AA2"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="L13:Q13"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L9:Q9"/>
-    <mergeCell ref="L10:Q10"/>
-    <mergeCell ref="L11:Q11"/>
     <mergeCell ref="D10:I10"/>
     <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L12:Q12"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D18:Q18"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="L15:Q15"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="J14:K14"/>
     <mergeCell ref="Q3:AA3"/>
     <mergeCell ref="D8:I8"/>
     <mergeCell ref="D9:I9"/>
     <mergeCell ref="C4:G4"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="L7:Q7"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="L8:Q8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
